--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efna4-Epha4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efna4-Epha4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Efna4</t>
+  </si>
+  <si>
+    <t>Epha4</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Efna4</t>
-  </si>
-  <si>
-    <t>Epha4</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8339443333333333</v>
+        <v>1.008000333333333</v>
       </c>
       <c r="H2">
-        <v>2.501833</v>
+        <v>3.024001</v>
       </c>
       <c r="I2">
-        <v>0.305203232930382</v>
+        <v>0.3525296793986107</v>
       </c>
       <c r="J2">
-        <v>0.305203232930382</v>
+        <v>0.3525296793986107</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.189414999999999</v>
+        <v>8.813278666666667</v>
       </c>
       <c r="N2">
-        <v>21.568245</v>
+        <v>26.439836</v>
       </c>
       <c r="O2">
-        <v>0.3327435204651371</v>
+        <v>0.3770976991891536</v>
       </c>
       <c r="P2">
-        <v>0.3327435204651371</v>
+        <v>0.3770976991891536</v>
       </c>
       <c r="Q2">
-        <v>5.995571899231666</v>
+        <v>8.883787833759557</v>
       </c>
       <c r="R2">
-        <v>53.96014709308499</v>
+        <v>79.954090503836</v>
       </c>
       <c r="S2">
-        <v>0.1015543981825966</v>
+        <v>0.1329381309971061</v>
       </c>
       <c r="T2">
-        <v>0.1015543981825966</v>
+        <v>0.1329381309971061</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8339443333333333</v>
+        <v>1.008000333333333</v>
       </c>
       <c r="H3">
-        <v>2.501833</v>
+        <v>3.024001</v>
       </c>
       <c r="I3">
-        <v>0.305203232930382</v>
+        <v>0.3525296793986107</v>
       </c>
       <c r="J3">
-        <v>0.305203232930382</v>
+        <v>0.3525296793986107</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>38.717137</v>
       </c>
       <c r="O3">
-        <v>0.5973075912162077</v>
+        <v>0.5522024902836482</v>
       </c>
       <c r="P3">
-        <v>0.5973075912162079</v>
+        <v>0.5522024902836482</v>
       </c>
       <c r="Q3">
-        <v>10.76264566801344</v>
+        <v>13.00896233390411</v>
       </c>
       <c r="R3">
-        <v>96.863811012121</v>
+        <v>117.080661005137</v>
       </c>
       <c r="S3">
-        <v>0.1823002078930457</v>
+        <v>0.194667766862809</v>
       </c>
       <c r="T3">
-        <v>0.1823002078930457</v>
+        <v>0.1946677668628089</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8339443333333333</v>
+        <v>1.008000333333333</v>
       </c>
       <c r="H4">
-        <v>2.501833</v>
+        <v>3.024001</v>
       </c>
       <c r="I4">
-        <v>0.305203232930382</v>
+        <v>0.3525296793986107</v>
       </c>
       <c r="J4">
-        <v>0.305203232930382</v>
+        <v>0.3525296793986107</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.490109666666666</v>
+        <v>1.649921333333333</v>
       </c>
       <c r="N4">
-        <v>4.470329</v>
+        <v>4.949764</v>
       </c>
       <c r="O4">
-        <v>0.0689658805849709</v>
+        <v>0.07059592260441032</v>
       </c>
       <c r="P4">
-        <v>0.06896588058497091</v>
+        <v>0.07059592260441033</v>
       </c>
       <c r="Q4">
-        <v>1.242668512561889</v>
+        <v>1.663121253973778</v>
       </c>
       <c r="R4">
-        <v>11.184016613057</v>
+        <v>14.968091285764</v>
       </c>
       <c r="S4">
-        <v>0.02104860971642378</v>
+        <v>0.02488715796258191</v>
       </c>
       <c r="T4">
-        <v>0.02104860971642379</v>
+        <v>0.02488715796258191</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,14 +708,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8339443333333333</v>
+        <v>1.008000333333333</v>
       </c>
       <c r="H5">
-        <v>2.501833</v>
+        <v>3.024001</v>
       </c>
       <c r="I5">
-        <v>0.305203232930382</v>
+        <v>0.3525296793986107</v>
       </c>
       <c r="J5">
-        <v>0.305203232930382</v>
+        <v>0.3525296793986107</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.02123933333333333</v>
+        <v>0.002428</v>
       </c>
       <c r="N5">
-        <v>0.063718</v>
+        <v>0.007284</v>
       </c>
       <c r="O5">
-        <v>0.0009830077336842938</v>
+        <v>0.0001038879227879399</v>
       </c>
       <c r="P5">
-        <v>0.000983007733684294</v>
+        <v>0.0001038879227879399</v>
       </c>
       <c r="Q5">
-        <v>0.01771242167711111</v>
+        <v>0.002447424809333334</v>
       </c>
       <c r="R5">
-        <v>0.159411795094</v>
+        <v>0.022026823284</v>
       </c>
       <c r="S5">
-        <v>0.0003000171383160145</v>
+        <v>3.66235761138201E-05</v>
       </c>
       <c r="T5">
-        <v>0.0003000171383160145</v>
+        <v>3.662357611382009E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>4.612615</v>
       </c>
       <c r="I6">
-        <v>0.5627014314157557</v>
+        <v>0.5377259091975243</v>
       </c>
       <c r="J6">
-        <v>0.5627014314157556</v>
+        <v>0.5377259091975243</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.189414999999999</v>
+        <v>8.813278666666667</v>
       </c>
       <c r="N6">
-        <v>21.568245</v>
+        <v>26.439836</v>
       </c>
       <c r="O6">
-        <v>0.3327435204651371</v>
+        <v>0.3770976991891536</v>
       </c>
       <c r="P6">
-        <v>0.3327435204651371</v>
+        <v>0.3770976991891536</v>
       </c>
       <c r="Q6">
-        <v>11.05400115674166</v>
+        <v>13.55075379234889</v>
       </c>
       <c r="R6">
-        <v>99.48601041067499</v>
+        <v>121.95678413114</v>
       </c>
       <c r="S6">
-        <v>0.1872352552600504</v>
+        <v>0.2027752031527822</v>
       </c>
       <c r="T6">
-        <v>0.1872352552600504</v>
+        <v>0.2027752031527822</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>4.612615</v>
       </c>
       <c r="I7">
-        <v>0.5627014314157557</v>
+        <v>0.5377259091975243</v>
       </c>
       <c r="J7">
-        <v>0.5627014314157556</v>
+        <v>0.5377259091975243</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>38.717137</v>
       </c>
       <c r="O7">
-        <v>0.5973075912162077</v>
+        <v>0.5522024902836482</v>
       </c>
       <c r="P7">
-        <v>0.5973075912162079</v>
+        <v>0.5522024902836482</v>
       </c>
       <c r="Q7">
         <v>19.84302743147278</v>
@@ -883,10 +883,10 @@
         <v>178.587246883255</v>
       </c>
       <c r="S7">
-        <v>0.3361058365728571</v>
+        <v>0.2969335861489118</v>
       </c>
       <c r="T7">
-        <v>0.3361058365728572</v>
+        <v>0.2969335861489118</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>4.612615</v>
       </c>
       <c r="I8">
-        <v>0.5627014314157557</v>
+        <v>0.5377259091975243</v>
       </c>
       <c r="J8">
-        <v>0.5627014314157556</v>
+        <v>0.5377259091975243</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.490109666666666</v>
+        <v>1.649921333333333</v>
       </c>
       <c r="N8">
-        <v>4.470329</v>
+        <v>4.949764</v>
       </c>
       <c r="O8">
-        <v>0.0689658805849709</v>
+        <v>0.07059592260441032</v>
       </c>
       <c r="P8">
-        <v>0.06896588058497091</v>
+        <v>0.07059592260441033</v>
       </c>
       <c r="Q8">
-        <v>2.291100733370555</v>
+        <v>2.536817296984444</v>
       </c>
       <c r="R8">
-        <v>20.619906600335</v>
+        <v>22.83135567286</v>
       </c>
       <c r="S8">
-        <v>0.0388071997240112</v>
+        <v>0.03796125666809459</v>
       </c>
       <c r="T8">
-        <v>0.0388071997240112</v>
+        <v>0.0379612566680946</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>4.612615</v>
       </c>
       <c r="I9">
-        <v>0.5627014314157557</v>
+        <v>0.5377259091975243</v>
       </c>
       <c r="J9">
-        <v>0.5627014314157556</v>
+        <v>0.5377259091975243</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.02123933333333333</v>
+        <v>0.002428</v>
       </c>
       <c r="N9">
-        <v>0.063718</v>
+        <v>0.007284</v>
       </c>
       <c r="O9">
-        <v>0.0009830077336842938</v>
+        <v>0.0001038879227879399</v>
       </c>
       <c r="P9">
-        <v>0.000983007733684294</v>
+        <v>0.0001038879227879399</v>
       </c>
       <c r="Q9">
-        <v>0.03265628917444444</v>
+        <v>0.003733143073333333</v>
       </c>
       <c r="R9">
-        <v>0.29390660257</v>
+        <v>0.03359828766</v>
       </c>
       <c r="S9">
-        <v>0.00055313985883691</v>
+        <v>5.586322773578721E-05</v>
       </c>
       <c r="T9">
-        <v>0.0005531398588369101</v>
+        <v>5.586322773578721E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,31 +1018,31 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.3210486666666667</v>
+        <v>0.313796</v>
       </c>
       <c r="H10">
-        <v>0.9631460000000001</v>
+        <v>0.941388</v>
       </c>
       <c r="I10">
-        <v>0.1174959611548676</v>
+        <v>0.1097444114038651</v>
       </c>
       <c r="J10">
-        <v>0.1174959611548676</v>
+        <v>0.1097444114038651</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.189414999999999</v>
+        <v>8.813278666666667</v>
       </c>
       <c r="N10">
-        <v>21.568245</v>
+        <v>26.439836</v>
       </c>
       <c r="O10">
-        <v>0.3327435204651371</v>
+        <v>0.3770976991891536</v>
       </c>
       <c r="P10">
-        <v>0.3327435204651371</v>
+        <v>0.3770976991891536</v>
       </c>
       <c r="Q10">
-        <v>2.308152099863333</v>
+        <v>2.765571592485334</v>
       </c>
       <c r="R10">
-        <v>20.77336889877</v>
+        <v>24.890144332368</v>
       </c>
       <c r="S10">
-        <v>0.03909601975510563</v>
+        <v>0.04138436503926543</v>
       </c>
       <c r="T10">
-        <v>0.03909601975510563</v>
+        <v>0.04138436503926542</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,31 +1080,31 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.3210486666666667</v>
+        <v>0.313796</v>
       </c>
       <c r="H11">
-        <v>0.9631460000000001</v>
+        <v>0.941388</v>
       </c>
       <c r="I11">
-        <v>0.1174959611548676</v>
+        <v>0.1097444114038651</v>
       </c>
       <c r="J11">
-        <v>0.1174959611548676</v>
+        <v>0.1097444114038651</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>38.717137</v>
       </c>
       <c r="O11">
-        <v>0.5973075912162077</v>
+        <v>0.5522024902836482</v>
       </c>
       <c r="P11">
-        <v>0.5973075912162079</v>
+        <v>0.5522024902836482</v>
       </c>
       <c r="Q11">
-        <v>4.143361737000223</v>
+        <v>4.049760907350667</v>
       </c>
       <c r="R11">
-        <v>37.290255633002</v>
+        <v>36.447848166156</v>
       </c>
       <c r="S11">
-        <v>0.07018122953504706</v>
+        <v>0.06060113727192749</v>
       </c>
       <c r="T11">
-        <v>0.07018122953504707</v>
+        <v>0.06060113727192748</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,31 +1142,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.3210486666666667</v>
+        <v>0.313796</v>
       </c>
       <c r="H12">
-        <v>0.9631460000000001</v>
+        <v>0.941388</v>
       </c>
       <c r="I12">
-        <v>0.1174959611548676</v>
+        <v>0.1097444114038651</v>
       </c>
       <c r="J12">
-        <v>0.1174959611548676</v>
+        <v>0.1097444114038651</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.490109666666666</v>
+        <v>1.649921333333333</v>
       </c>
       <c r="N12">
-        <v>4.470329</v>
+        <v>4.949764</v>
       </c>
       <c r="O12">
-        <v>0.0689658805849709</v>
+        <v>0.07059592260441032</v>
       </c>
       <c r="P12">
-        <v>0.06896588058497091</v>
+        <v>0.07059592260441033</v>
       </c>
       <c r="Q12">
-        <v>0.4783977216704444</v>
+        <v>0.5177387147146667</v>
       </c>
       <c r="R12">
-        <v>4.305579495033999</v>
+        <v>4.659648432432</v>
       </c>
       <c r="S12">
-        <v>0.008103212426222976</v>
+        <v>0.007747507973733823</v>
       </c>
       <c r="T12">
-        <v>0.008103212426222977</v>
+        <v>0.007747507973733824</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,31 +1204,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.3210486666666667</v>
+        <v>0.313796</v>
       </c>
       <c r="H13">
-        <v>0.9631460000000001</v>
+        <v>0.941388</v>
       </c>
       <c r="I13">
-        <v>0.1174959611548676</v>
+        <v>0.1097444114038651</v>
       </c>
       <c r="J13">
-        <v>0.1174959611548676</v>
+        <v>0.1097444114038651</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1237,276 +1237,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.02123933333333333</v>
+        <v>0.002428</v>
       </c>
       <c r="N13">
-        <v>0.063718</v>
+        <v>0.007284</v>
       </c>
       <c r="O13">
-        <v>0.0009830077336842938</v>
+        <v>0.0001038879227879399</v>
       </c>
       <c r="P13">
-        <v>0.000983007733684294</v>
+        <v>0.0001038879227879399</v>
       </c>
       <c r="Q13">
-        <v>0.006818859647555556</v>
+        <v>0.000761896688</v>
       </c>
       <c r="R13">
-        <v>0.061369736828</v>
+        <v>0.006857070192</v>
       </c>
       <c r="S13">
-        <v>0.0001154994384919042</v>
+        <v>1.140111893833265E-05</v>
       </c>
       <c r="T13">
-        <v>0.0001154994384919042</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.03989166666666667</v>
-      </c>
-      <c r="H14">
-        <v>0.119675</v>
-      </c>
-      <c r="I14">
-        <v>0.01459937449899473</v>
-      </c>
-      <c r="J14">
-        <v>0.01459937449899473</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>7.189414999999999</v>
-      </c>
-      <c r="N14">
-        <v>21.568245</v>
-      </c>
-      <c r="O14">
-        <v>0.3327435204651371</v>
-      </c>
-      <c r="P14">
-        <v>0.3327435204651371</v>
-      </c>
-      <c r="Q14">
-        <v>0.2867977467083333</v>
-      </c>
-      <c r="R14">
-        <v>2.581179720375</v>
-      </c>
-      <c r="S14">
-        <v>0.004857847267384452</v>
-      </c>
-      <c r="T14">
-        <v>0.004857847267384452</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.03989166666666667</v>
-      </c>
-      <c r="H15">
-        <v>0.119675</v>
-      </c>
-      <c r="I15">
-        <v>0.01459937449899473</v>
-      </c>
-      <c r="J15">
-        <v>0.01459937449899473</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>12.90571233333333</v>
-      </c>
-      <c r="N15">
-        <v>38.717137</v>
-      </c>
-      <c r="O15">
-        <v>0.5973075912162077</v>
-      </c>
-      <c r="P15">
-        <v>0.5973075912162079</v>
-      </c>
-      <c r="Q15">
-        <v>0.5148303744972222</v>
-      </c>
-      <c r="R15">
-        <v>4.633473370475</v>
-      </c>
-      <c r="S15">
-        <v>0.008720317215257869</v>
-      </c>
-      <c r="T15">
-        <v>0.008720317215257872</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.03989166666666667</v>
-      </c>
-      <c r="H16">
-        <v>0.119675</v>
-      </c>
-      <c r="I16">
-        <v>0.01459937449899473</v>
-      </c>
-      <c r="J16">
-        <v>0.01459937449899473</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1.490109666666666</v>
-      </c>
-      <c r="N16">
-        <v>4.470329</v>
-      </c>
-      <c r="O16">
-        <v>0.0689658805849709</v>
-      </c>
-      <c r="P16">
-        <v>0.06896588058497091</v>
-      </c>
-      <c r="Q16">
-        <v>0.05944295811944443</v>
-      </c>
-      <c r="R16">
-        <v>0.534986623075</v>
-      </c>
-      <c r="S16">
-        <v>0.00100685871831294</v>
-      </c>
-      <c r="T16">
-        <v>0.00100685871831294</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.03989166666666667</v>
-      </c>
-      <c r="H17">
-        <v>0.119675</v>
-      </c>
-      <c r="I17">
-        <v>0.01459937449899473</v>
-      </c>
-      <c r="J17">
-        <v>0.01459937449899473</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.02123933333333333</v>
-      </c>
-      <c r="N17">
-        <v>0.063718</v>
-      </c>
-      <c r="O17">
-        <v>0.0009830077336842938</v>
-      </c>
-      <c r="P17">
-        <v>0.000983007733684294</v>
-      </c>
-      <c r="Q17">
-        <v>0.0008472724055555555</v>
-      </c>
-      <c r="R17">
-        <v>0.00762545165</v>
-      </c>
-      <c r="S17">
-        <v>1.435129803946508E-05</v>
-      </c>
-      <c r="T17">
-        <v>1.435129803946508E-05</v>
+        <v>1.140111893833265E-05</v>
       </c>
     </row>
   </sheetData>
